--- a/results/datasetNearZero_polytree25.xlsx
+++ b/results/datasetNearZero_polytree25.xlsx
@@ -466,13 +466,13 @@
         <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9760000000000006</v>
+        <v>0.9830000000000004</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0239999999999994</v>
+        <v>0.01699999999999957</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1874551773071289</v>
+        <v>0.1958415508270264</v>
       </c>
     </row>
     <row r="3">
@@ -488,13 +488,13 @@
         <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9890000000000003</v>
+        <v>0.9780000000000004</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01099999999999972</v>
+        <v>0.02199999999999944</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1971368789672852</v>
+        <v>0.185448169708252</v>
       </c>
     </row>
     <row r="4">
@@ -510,13 +510,13 @@
         <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9810000000000005</v>
+        <v>0.9820000000000004</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01899999999999952</v>
+        <v>0.01799999999999954</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1874556541442871</v>
+        <v>0.2004659175872803</v>
       </c>
     </row>
     <row r="5">
@@ -532,13 +532,13 @@
         <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9870000000000003</v>
+        <v>0.9770000000000006</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01299999999999967</v>
+        <v>0.02299999999999942</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1874563694000244</v>
+        <v>0.192347526550293</v>
       </c>
     </row>
     <row r="6">
@@ -554,13 +554,13 @@
         <v>25</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9800000000000005</v>
+        <v>0.9790000000000005</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01999999999999949</v>
+        <v>0.02099999999999947</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2031190395355225</v>
+        <v>0.1923868656158447</v>
       </c>
     </row>
     <row r="7">
@@ -576,13 +576,13 @@
         <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9890000000000003</v>
+        <v>0.9870000000000003</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01099999999999972</v>
+        <v>0.01299999999999967</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2030355930328369</v>
+        <v>0.2160942554473877</v>
       </c>
     </row>
     <row r="8">
@@ -598,13 +598,13 @@
         <v>25</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9810000000000005</v>
+        <v>0.9870000000000003</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01899999999999952</v>
+        <v>0.01299999999999967</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2243459224700928</v>
+        <v>0.2267556190490723</v>
       </c>
     </row>
     <row r="9">
@@ -620,13 +620,13 @@
         <v>25</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9690000000000009</v>
+        <v>0.9730000000000008</v>
       </c>
       <c r="E9" t="n">
-        <v>0.03099999999999923</v>
+        <v>0.02699999999999932</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1891121864318848</v>
+        <v>0.1894466876983643</v>
       </c>
     </row>
     <row r="10">
@@ -642,13 +642,13 @@
         <v>25</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9880000000000003</v>
+        <v>0.9840000000000004</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01199999999999969</v>
+        <v>0.01599999999999959</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2141492366790771</v>
+        <v>0.2023637294769287</v>
       </c>
     </row>
     <row r="11">
@@ -664,13 +664,13 @@
         <v>25</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9880000000000003</v>
+        <v>0.9810000000000005</v>
       </c>
       <c r="E11" t="n">
-        <v>0.01199999999999969</v>
+        <v>0.01899999999999952</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1952235698699951</v>
+        <v>0.1926994323730469</v>
       </c>
     </row>
     <row r="12">
@@ -686,13 +686,13 @@
         <v>25</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9880000000000003</v>
+        <v>0.9860000000000003</v>
       </c>
       <c r="E12" t="n">
-        <v>0.01199999999999969</v>
+        <v>0.01399999999999964</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1874656677246094</v>
+        <v>0.1921291351318359</v>
       </c>
     </row>
     <row r="13">
@@ -708,13 +708,13 @@
         <v>25</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9860000000000003</v>
+        <v>0.9810000000000005</v>
       </c>
       <c r="E13" t="n">
-        <v>0.01399999999999964</v>
+        <v>0.01899999999999952</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2030634880065918</v>
+        <v>0.2037067413330078</v>
       </c>
     </row>
     <row r="14">
@@ -730,13 +730,13 @@
         <v>25</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9790000000000005</v>
+        <v>0.9770000000000006</v>
       </c>
       <c r="E14" t="n">
-        <v>0.02099999999999947</v>
+        <v>0.02299999999999942</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1874353885650635</v>
+        <v>0.1929202079772949</v>
       </c>
     </row>
     <row r="15">
@@ -752,13 +752,13 @@
         <v>25</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9850000000000004</v>
+        <v>0.9860000000000003</v>
       </c>
       <c r="E15" t="n">
-        <v>0.01499999999999962</v>
+        <v>0.01399999999999964</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1874773502349854</v>
+        <v>0.1921846866607666</v>
       </c>
     </row>
     <row r="16">
@@ -774,13 +774,13 @@
         <v>25</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9870000000000003</v>
+        <v>0.9830000000000004</v>
       </c>
       <c r="E16" t="n">
-        <v>0.01299999999999967</v>
+        <v>0.01699999999999957</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2030763626098633</v>
+        <v>0.193312406539917</v>
       </c>
     </row>
     <row r="17">
@@ -796,13 +796,13 @@
         <v>25</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9860000000000003</v>
+        <v>0.9760000000000006</v>
       </c>
       <c r="E17" t="n">
-        <v>0.01399999999999964</v>
+        <v>0.0239999999999994</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2030777931213379</v>
+        <v>0.1901662349700928</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         <v>25</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9770000000000006</v>
+        <v>0.9870000000000003</v>
       </c>
       <c r="E18" t="n">
-        <v>0.02299999999999942</v>
+        <v>0.01299999999999967</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1874644756317139</v>
+        <v>0.192279577255249</v>
       </c>
     </row>
     <row r="19">
@@ -840,13 +840,13 @@
         <v>25</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9850000000000004</v>
+        <v>0.9870000000000003</v>
       </c>
       <c r="E19" t="n">
-        <v>0.01499999999999962</v>
+        <v>0.01299999999999967</v>
       </c>
       <c r="F19" t="n">
-        <v>0.203068733215332</v>
+        <v>0.1919617652893066</v>
       </c>
     </row>
     <row r="20">
@@ -862,13 +862,13 @@
         <v>25</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9810000000000005</v>
+        <v>0.9740000000000005</v>
       </c>
       <c r="E20" t="n">
-        <v>0.01899999999999952</v>
+        <v>0.02599999999999935</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1874587535858154</v>
+        <v>0.1848437786102295</v>
       </c>
     </row>
     <row r="21">
@@ -884,13 +884,13 @@
         <v>25</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9850000000000004</v>
+        <v>0.9780000000000004</v>
       </c>
       <c r="E21" t="n">
-        <v>0.01499999999999962</v>
+        <v>0.02199999999999944</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1874628067016602</v>
+        <v>0.1844689846038818</v>
       </c>
     </row>
     <row r="22">
@@ -906,13 +906,13 @@
         <v>25</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9770000000000006</v>
+        <v>0.9920000000000002</v>
       </c>
       <c r="E22" t="n">
-        <v>0.02299999999999942</v>
+        <v>0.007999999999999795</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2030665874481201</v>
+        <v>0.2002348899841309</v>
       </c>
     </row>
     <row r="23">
@@ -928,13 +928,13 @@
         <v>25</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9800000000000005</v>
+        <v>0.9810000000000005</v>
       </c>
       <c r="E23" t="n">
-        <v>0.01999999999999949</v>
+        <v>0.01899999999999952</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1874561309814453</v>
+        <v>0.1940736770629883</v>
       </c>
     </row>
     <row r="24">
@@ -950,13 +950,13 @@
         <v>25</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9870000000000003</v>
+        <v>0.9840000000000004</v>
       </c>
       <c r="E24" t="n">
-        <v>0.01299999999999967</v>
+        <v>0.01599999999999959</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2030775547027588</v>
+        <v>0.1845498085021973</v>
       </c>
     </row>
     <row r="25">
@@ -972,13 +972,13 @@
         <v>25</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9810000000000005</v>
+        <v>0.9790000000000005</v>
       </c>
       <c r="E25" t="n">
-        <v>0.01899999999999952</v>
+        <v>0.02099999999999947</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1874568462371826</v>
+        <v>0.2004642486572266</v>
       </c>
     </row>
     <row r="26">
@@ -994,13 +994,13 @@
         <v>25</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9870000000000003</v>
+        <v>0.9910000000000002</v>
       </c>
       <c r="E26" t="n">
-        <v>0.01299999999999967</v>
+        <v>0.008999999999999769</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2030763626098633</v>
+        <v>0.1848430633544922</v>
       </c>
     </row>
     <row r="27">
@@ -1016,13 +1016,13 @@
         <v>25</v>
       </c>
       <c r="D27" t="n">
-        <v>0.954124661101418</v>
+        <v>0.9614958797987869</v>
       </c>
       <c r="E27" t="n">
-        <v>0.04587533889858189</v>
+        <v>0.03850412020121318</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1874549388885498</v>
+        <v>0.2002365589141846</v>
       </c>
     </row>
     <row r="28">
@@ -1038,13 +1038,13 @@
         <v>25</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9521617370603142</v>
+        <v>0.9588692896060524</v>
       </c>
       <c r="E28" t="n">
-        <v>0.04783826293968591</v>
+        <v>0.04113071039394749</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2030794620513916</v>
+        <v>0.1848297119140625</v>
       </c>
     </row>
     <row r="29">
@@ -1060,13 +1060,13 @@
         <v>25</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9561516612778613</v>
+        <v>0.9529781484303551</v>
       </c>
       <c r="E29" t="n">
-        <v>0.04384833872213868</v>
+        <v>0.04702185156964496</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1874575614929199</v>
+        <v>0.1961190700531006</v>
       </c>
     </row>
     <row r="30">
@@ -1082,13 +1082,13 @@
         <v>25</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9518850615020145</v>
+        <v>0.9587555763120342</v>
       </c>
       <c r="E30" t="n">
-        <v>0.04811493849798559</v>
+        <v>0.04124442368796578</v>
       </c>
       <c r="F30" t="n">
-        <v>0.2030787467956543</v>
+        <v>0.2126567363739014</v>
       </c>
     </row>
     <row r="31">
@@ -1104,13 +1104,13 @@
         <v>25</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9608520586540593</v>
+        <v>0.9609749055836906</v>
       </c>
       <c r="E31" t="n">
-        <v>0.03914794134594073</v>
+        <v>0.0390250944163095</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1874501705169678</v>
+        <v>0.1904685497283936</v>
       </c>
     </row>
     <row r="32">
@@ -1126,13 +1126,13 @@
         <v>25</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9508143896668525</v>
+        <v>0.9660899249278546</v>
       </c>
       <c r="E32" t="n">
-        <v>0.04918561033314749</v>
+        <v>0.03391007507214538</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1874568462371826</v>
+        <v>0.2059767246246338</v>
       </c>
     </row>
     <row r="33">
@@ -1148,13 +1148,13 @@
         <v>25</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9581400084929024</v>
+        <v>0.9655476584762253</v>
       </c>
       <c r="E33" t="n">
-        <v>0.04185999150709759</v>
+        <v>0.03445234152377464</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2030773162841797</v>
+        <v>0.1916773319244385</v>
       </c>
     </row>
     <row r="34">
@@ -1170,13 +1170,13 @@
         <v>25</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9640303962105959</v>
+        <v>0.9473181930766124</v>
       </c>
       <c r="E34" t="n">
-        <v>0.03596960378940411</v>
+        <v>0.05268180692338768</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1874561309814453</v>
+        <v>0.1942031383514404</v>
       </c>
     </row>
     <row r="35">
@@ -1192,13 +1192,13 @@
         <v>25</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9605693743885202</v>
+        <v>0.9538003668973739</v>
       </c>
       <c r="E35" t="n">
-        <v>0.03943062561147993</v>
+        <v>0.04619963310262614</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2030811309814453</v>
+        <v>0.1930248737335205</v>
       </c>
     </row>
     <row r="36">
@@ -1214,13 +1214,13 @@
         <v>25</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9519326128173865</v>
+        <v>0.9710328821087124</v>
       </c>
       <c r="E36" t="n">
-        <v>0.04806738718261345</v>
+        <v>0.02896711789128764</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1874520778656006</v>
+        <v>0.1821131706237793</v>
       </c>
     </row>
     <row r="37">
@@ -1236,13 +1236,13 @@
         <v>25</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9636164816155446</v>
+        <v>0.9578207080487776</v>
       </c>
       <c r="E37" t="n">
-        <v>0.03638351838445549</v>
+        <v>0.04217929195122235</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1874549388885498</v>
+        <v>0.1922435760498047</v>
       </c>
     </row>
     <row r="38">
@@ -1258,13 +1258,13 @@
         <v>25</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9489460969306195</v>
+        <v>0.9606562027769286</v>
       </c>
       <c r="E38" t="n">
-        <v>0.05105390306938051</v>
+        <v>0.03934379722307138</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1874570846557617</v>
+        <v>0.1914887428283691</v>
       </c>
     </row>
     <row r="39">
@@ -1280,13 +1280,13 @@
         <v>25</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9596035544398577</v>
+        <v>0.9611172866265073</v>
       </c>
       <c r="E39" t="n">
-        <v>0.04039644556014233</v>
+        <v>0.03888271337349267</v>
       </c>
       <c r="F39" t="n">
-        <v>0.2030761241912842</v>
+        <v>0.194195032119751</v>
       </c>
     </row>
     <row r="40">
@@ -1302,13 +1302,13 @@
         <v>25</v>
       </c>
       <c r="D40" t="n">
-        <v>0.975038631337419</v>
+        <v>0.9572917966577896</v>
       </c>
       <c r="E40" t="n">
-        <v>0.024961368662581</v>
+        <v>0.04270820334221039</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1874597072601318</v>
+        <v>0.1901118755340576</v>
       </c>
     </row>
     <row r="41">
@@ -1324,13 +1324,13 @@
         <v>25</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9662880097089734</v>
+        <v>0.9696780796878783</v>
       </c>
       <c r="E41" t="n">
-        <v>0.03371199029102646</v>
+        <v>0.03032192031212167</v>
       </c>
       <c r="F41" t="n">
-        <v>0.187427282333374</v>
+        <v>0.1979825496673584</v>
       </c>
     </row>
     <row r="42">
@@ -1346,13 +1346,13 @@
         <v>25</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9639668205805336</v>
+        <v>0.9508593378795811</v>
       </c>
       <c r="E42" t="n">
-        <v>0.03603317941946635</v>
+        <v>0.04914066212041886</v>
       </c>
       <c r="F42" t="n">
-        <v>0.2031040191650391</v>
+        <v>0.1916091442108154</v>
       </c>
     </row>
     <row r="43">
@@ -1368,13 +1368,13 @@
         <v>25</v>
       </c>
       <c r="D43" t="n">
-        <v>0.953159801036033</v>
+        <v>0.9622619488587024</v>
       </c>
       <c r="E43" t="n">
-        <v>0.04684019896396693</v>
+        <v>0.03773805114129754</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1874539852142334</v>
+        <v>0.1957769393920898</v>
       </c>
     </row>
     <row r="44">
@@ -1390,13 +1390,13 @@
         <v>25</v>
       </c>
       <c r="D44" t="n">
-        <v>0.958582322398312</v>
+        <v>0.9572437755964193</v>
       </c>
       <c r="E44" t="n">
-        <v>0.04141767760168807</v>
+        <v>0.04275622440358075</v>
       </c>
       <c r="F44" t="n">
-        <v>0.187413215637207</v>
+        <v>0.1894865036010742</v>
       </c>
     </row>
     <row r="45">
@@ -1412,13 +1412,13 @@
         <v>25</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9519816688826673</v>
+        <v>0.9602925205041185</v>
       </c>
       <c r="E45" t="n">
-        <v>0.04801833111733255</v>
+        <v>0.03970747949588141</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1875035762786865</v>
+        <v>0.1900978088378906</v>
       </c>
     </row>
     <row r="46">
@@ -1434,13 +1434,13 @@
         <v>25</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9659943820104745</v>
+        <v>0.9558407390902401</v>
       </c>
       <c r="E46" t="n">
-        <v>0.03400561798952553</v>
+        <v>0.04415926090975995</v>
       </c>
       <c r="F46" t="n">
-        <v>0.2030293941497803</v>
+        <v>0.1853487491607666</v>
       </c>
     </row>
     <row r="47">
@@ -1456,13 +1456,13 @@
         <v>25</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9429428451036207</v>
+        <v>0.9374023466431916</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0570571548963793</v>
+        <v>0.06259765335680836</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1874983310699463</v>
+        <v>0.2004148960113525</v>
       </c>
     </row>
     <row r="48">
@@ -1478,13 +1478,13 @@
         <v>25</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9438124960154446</v>
+        <v>0.9590245054325747</v>
       </c>
       <c r="E48" t="n">
-        <v>0.05618750398455537</v>
+        <v>0.04097549456742528</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1874537467956543</v>
+        <v>0.1942343711853027</v>
       </c>
     </row>
     <row r="49">
@@ -1500,13 +1500,13 @@
         <v>25</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9537730112598348</v>
+        <v>0.9644965076577028</v>
       </c>
       <c r="E49" t="n">
-        <v>0.04622698874016511</v>
+        <v>0.03550349234229722</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2030797004699707</v>
+        <v>0.1931986808776855</v>
       </c>
     </row>
     <row r="50">
@@ -1522,13 +1522,13 @@
         <v>25</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9513250653455901</v>
+        <v>0.9613788237021177</v>
       </c>
       <c r="E50" t="n">
-        <v>0.04867493465440976</v>
+        <v>0.03862117629788234</v>
       </c>
       <c r="F50" t="n">
-        <v>0.187455415725708</v>
+        <v>0.1921045780181885</v>
       </c>
     </row>
     <row r="51">
@@ -1544,13 +1544,13 @@
         <v>25</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9543558160449792</v>
+        <v>0.9517900854556505</v>
       </c>
       <c r="E51" t="n">
-        <v>0.04564418395502079</v>
+        <v>0.04820991454434946</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2030348777770996</v>
+        <v>0.2002432346343994</v>
       </c>
     </row>
     <row r="52">
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>0.3485326766967773</v>
+        <v>0.3467040061950684</v>
       </c>
     </row>
     <row r="53">
@@ -1588,13 +1588,13 @@
         <v>25</v>
       </c>
       <c r="D53" t="n">
-        <v>1</v>
+        <v>0.831</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>0.169</v>
       </c>
       <c r="F53" t="n">
-        <v>0.3436672687530518</v>
+        <v>0.3457334041595459</v>
       </c>
     </row>
     <row r="54">
@@ -1610,13 +1610,13 @@
         <v>25</v>
       </c>
       <c r="D54" t="n">
-        <v>1</v>
+        <v>0.989</v>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="F54" t="n">
-        <v>0.343625545501709</v>
+        <v>0.3425586223602295</v>
       </c>
     </row>
     <row r="55">
@@ -1638,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>0.3280906677246094</v>
+        <v>0.3339428901672363</v>
       </c>
     </row>
     <row r="56">
@@ -1654,13 +1654,13 @@
         <v>25</v>
       </c>
       <c r="D56" t="n">
-        <v>0.99</v>
+        <v>0.868</v>
       </c>
       <c r="E56" t="n">
-        <v>0.01</v>
+        <v>0.132</v>
       </c>
       <c r="F56" t="n">
-        <v>0.3436713218688965</v>
+        <v>0.3352091312408447</v>
       </c>
     </row>
     <row r="57">
@@ -1676,13 +1676,13 @@
         <v>25</v>
       </c>
       <c r="D57" t="n">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="F57" t="n">
-        <v>0.3436241149902344</v>
+        <v>0.3401014804840088</v>
       </c>
     </row>
     <row r="58">
@@ -1698,13 +1698,13 @@
         <v>25</v>
       </c>
       <c r="D58" t="n">
-        <v>1</v>
+        <v>0.994</v>
       </c>
       <c r="E58" t="n">
-        <v>0</v>
+        <v>0.006</v>
       </c>
       <c r="F58" t="n">
-        <v>0.3437168598175049</v>
+        <v>0.3452768325805664</v>
       </c>
     </row>
     <row r="59">
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>0.3436639308929443</v>
+        <v>0.3461108207702637</v>
       </c>
     </row>
     <row r="60">
@@ -1748,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>0.3280496597290039</v>
+        <v>0.3333265781402588</v>
       </c>
     </row>
     <row r="61">
@@ -1764,13 +1764,13 @@
         <v>25</v>
       </c>
       <c r="D61" t="n">
-        <v>1</v>
+        <v>0.968</v>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>0.032</v>
       </c>
       <c r="F61" t="n">
-        <v>0.3280510902404785</v>
+        <v>0.3321528434753418</v>
       </c>
     </row>
     <row r="62">
@@ -1786,13 +1786,13 @@
         <v>25</v>
       </c>
       <c r="D62" t="n">
-        <v>0.914</v>
+        <v>1</v>
       </c>
       <c r="E62" t="n">
-        <v>0.08599999999999999</v>
+        <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>0.3436636924743652</v>
+        <v>0.3442623615264893</v>
       </c>
     </row>
     <row r="63">
@@ -1814,7 +1814,7 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>0.3280482292175293</v>
+        <v>0.3260190486907959</v>
       </c>
     </row>
     <row r="64">
@@ -1836,7 +1836,7 @@
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>0.3436691761016846</v>
+        <v>0.3363912105560303</v>
       </c>
     </row>
     <row r="65">
@@ -1858,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>0.3436260223388672</v>
+        <v>0.3321137428283691</v>
       </c>
     </row>
     <row r="66">
@@ -1880,7 +1880,7 @@
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>0.3280932903289795</v>
+        <v>0.3380389213562012</v>
       </c>
     </row>
     <row r="67">
@@ -1902,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>0.3436682224273682</v>
+        <v>0.3441646099090576</v>
       </c>
     </row>
     <row r="68">
@@ -1918,13 +1918,13 @@
         <v>25</v>
       </c>
       <c r="D68" t="n">
-        <v>0.974</v>
+        <v>1</v>
       </c>
       <c r="E68" t="n">
-        <v>0.026</v>
+        <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>0.4217770099639893</v>
+        <v>0.3340358734130859</v>
       </c>
     </row>
     <row r="69">
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>0.3280448913574219</v>
+        <v>0.3303000926971436</v>
       </c>
     </row>
     <row r="70">
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>0.3904902935028076</v>
+        <v>0.3368923664093018</v>
       </c>
     </row>
     <row r="71">
@@ -1984,13 +1984,13 @@
         <v>25</v>
       </c>
       <c r="D71" t="n">
-        <v>1</v>
+        <v>0.948</v>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
+        <v>0.052</v>
       </c>
       <c r="F71" t="n">
-        <v>0.3593213558197021</v>
+        <v>0.3327610492706299</v>
       </c>
     </row>
     <row r="72">
@@ -2012,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>0.3280658721923828</v>
+        <v>0.3345942497253418</v>
       </c>
     </row>
     <row r="73">
@@ -2028,13 +2028,13 @@
         <v>25</v>
       </c>
       <c r="D73" t="n">
-        <v>1</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>0.057</v>
       </c>
       <c r="F73" t="n">
-        <v>0.343665599822998</v>
+        <v>0.3419456481933594</v>
       </c>
     </row>
     <row r="74">
@@ -2050,13 +2050,13 @@
         <v>25</v>
       </c>
       <c r="D74" t="n">
-        <v>1</v>
+        <v>0.989</v>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="F74" t="n">
-        <v>0.3436665534973145</v>
+        <v>0.3362817764282227</v>
       </c>
     </row>
     <row r="75">
@@ -2078,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>0.3280537128448486</v>
+        <v>0.3433187007904053</v>
       </c>
     </row>
     <row r="76">
@@ -2094,13 +2094,13 @@
         <v>25</v>
       </c>
       <c r="D76" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F76" t="n">
-        <v>0.3280441761016846</v>
+        <v>0.3415775299072266</v>
       </c>
     </row>
     <row r="77">
@@ -2116,13 +2116,13 @@
         <v>25</v>
       </c>
       <c r="D77" t="n">
-        <v>0.995</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="E77" t="n">
-        <v>0.005</v>
+        <v>0.058</v>
       </c>
       <c r="F77" t="n">
-        <v>0.3436694145202637</v>
+        <v>0.344343900680542</v>
       </c>
     </row>
     <row r="78">
@@ -2144,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>0.343670129776001</v>
+        <v>0.3403134346008301</v>
       </c>
     </row>
     <row r="79">
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>0.3280010223388672</v>
+        <v>0.3439853191375732</v>
       </c>
     </row>
     <row r="80">
@@ -2182,13 +2182,13 @@
         <v>25</v>
       </c>
       <c r="D80" t="n">
-        <v>0.998</v>
+        <v>0.608</v>
       </c>
       <c r="E80" t="n">
-        <v>0.002</v>
+        <v>0.392</v>
       </c>
       <c r="F80" t="n">
-        <v>0.3437151908874512</v>
+        <v>0.3440737724304199</v>
       </c>
     </row>
     <row r="81">
@@ -2204,13 +2204,13 @@
         <v>25</v>
       </c>
       <c r="D81" t="n">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="F81" t="n">
-        <v>0.343665599822998</v>
+        <v>0.3438756465911865</v>
       </c>
     </row>
     <row r="82">
@@ -2232,7 +2232,7 @@
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>0.3436827659606934</v>
+        <v>0.3437416553497314</v>
       </c>
     </row>
     <row r="83">
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>0.3280375003814697</v>
+        <v>0.3428299427032471</v>
       </c>
     </row>
     <row r="84">
@@ -2270,13 +2270,13 @@
         <v>25</v>
       </c>
       <c r="D84" t="n">
-        <v>0.963</v>
+        <v>0.978</v>
       </c>
       <c r="E84" t="n">
-        <v>0.037</v>
+        <v>0.022</v>
       </c>
       <c r="F84" t="n">
-        <v>0.3436698913574219</v>
+        <v>0.3367166519165039</v>
       </c>
     </row>
     <row r="85">
@@ -2292,13 +2292,13 @@
         <v>25</v>
       </c>
       <c r="D85" t="n">
-        <v>1</v>
+        <v>0.798</v>
       </c>
       <c r="E85" t="n">
-        <v>0</v>
+        <v>0.202</v>
       </c>
       <c r="F85" t="n">
-        <v>0.3280482292175293</v>
+        <v>0.3416788578033447</v>
       </c>
     </row>
     <row r="86">
@@ -2314,13 +2314,13 @@
         <v>25</v>
       </c>
       <c r="D86" t="n">
-        <v>0.995</v>
+        <v>1</v>
       </c>
       <c r="E86" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>0.34366774559021</v>
+        <v>0.3364098072052002</v>
       </c>
     </row>
     <row r="87">
@@ -2336,13 +2336,13 @@
         <v>25</v>
       </c>
       <c r="D87" t="n">
-        <v>0.999</v>
+        <v>0.973</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001</v>
+        <v>0.027</v>
       </c>
       <c r="F87" t="n">
-        <v>0.3280484676361084</v>
+        <v>0.3478310108184814</v>
       </c>
     </row>
     <row r="88">
@@ -2358,13 +2358,13 @@
         <v>25</v>
       </c>
       <c r="D88" t="n">
-        <v>0.981</v>
+        <v>1</v>
       </c>
       <c r="E88" t="n">
-        <v>0.019</v>
+        <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>0.3436651229858398</v>
+        <v>0.340522289276123</v>
       </c>
     </row>
     <row r="89">
@@ -2380,13 +2380,13 @@
         <v>25</v>
       </c>
       <c r="D89" t="n">
-        <v>0.991</v>
+        <v>1</v>
       </c>
       <c r="E89" t="n">
-        <v>0.008999999999999999</v>
+        <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>0.328047513961792</v>
+        <v>0.3445465564727783</v>
       </c>
     </row>
     <row r="90">
@@ -2402,13 +2402,13 @@
         <v>25</v>
       </c>
       <c r="D90" t="n">
-        <v>0.991</v>
+        <v>0.988</v>
       </c>
       <c r="E90" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.012</v>
       </c>
       <c r="F90" t="n">
-        <v>0.3436729907989502</v>
+        <v>0.3414585590362549</v>
       </c>
     </row>
     <row r="91">
@@ -2424,13 +2424,13 @@
         <v>25</v>
       </c>
       <c r="D91" t="n">
-        <v>1</v>
+        <v>0.951</v>
       </c>
       <c r="E91" t="n">
-        <v>0</v>
+        <v>0.049</v>
       </c>
       <c r="F91" t="n">
-        <v>0.3436672687530518</v>
+        <v>0.3362746238708496</v>
       </c>
     </row>
     <row r="92">
@@ -2452,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>0.3436715602874756</v>
+        <v>0.3440091609954834</v>
       </c>
     </row>
     <row r="93">
@@ -2468,13 +2468,13 @@
         <v>25</v>
       </c>
       <c r="D93" t="n">
-        <v>0.998</v>
+        <v>0.986</v>
       </c>
       <c r="E93" t="n">
-        <v>0.002</v>
+        <v>0.014</v>
       </c>
       <c r="F93" t="n">
-        <v>0.3280465602874756</v>
+        <v>0.3441071510314941</v>
       </c>
     </row>
     <row r="94">
@@ -2490,13 +2490,13 @@
         <v>25</v>
       </c>
       <c r="D94" t="n">
-        <v>0.977</v>
+        <v>0.986</v>
       </c>
       <c r="E94" t="n">
-        <v>0.023</v>
+        <v>0.014</v>
       </c>
       <c r="F94" t="n">
-        <v>0.3436708450317383</v>
+        <v>0.3342652320861816</v>
       </c>
     </row>
     <row r="95">
@@ -2518,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>0.3280472755432129</v>
+        <v>0.3427441120147705</v>
       </c>
     </row>
     <row r="96">
@@ -2534,13 +2534,13 @@
         <v>25</v>
       </c>
       <c r="D96" t="n">
-        <v>1</v>
+        <v>0.909</v>
       </c>
       <c r="E96" t="n">
-        <v>0</v>
+        <v>0.091</v>
       </c>
       <c r="F96" t="n">
-        <v>0.343670129776001</v>
+        <v>0.3358607292175293</v>
       </c>
     </row>
     <row r="97">
@@ -2562,7 +2562,7 @@
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3280565738677979</v>
+        <v>0.3443655967712402</v>
       </c>
     </row>
     <row r="98">
@@ -2578,13 +2578,13 @@
         <v>25</v>
       </c>
       <c r="D98" t="n">
-        <v>0.9360000000000001</v>
+        <v>0.915</v>
       </c>
       <c r="E98" t="n">
-        <v>0.064</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="F98" t="n">
-        <v>0.3436574935913086</v>
+        <v>0.3443708419799805</v>
       </c>
     </row>
     <row r="99">
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>0.3436689376831055</v>
+        <v>0.3440279960632324</v>
       </c>
     </row>
     <row r="100">
@@ -2628,7 +2628,7 @@
         <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>0.3436703681945801</v>
+        <v>0.3446919918060303</v>
       </c>
     </row>
     <row r="101">
@@ -2650,7 +2650,7 @@
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>0.3436658382415771</v>
+        <v>0.3453960418701172</v>
       </c>
     </row>
     <row r="102">
@@ -2666,13 +2666,13 @@
         <v>25</v>
       </c>
       <c r="D102" t="n">
-        <v>0.997002997002997</v>
+        <v>0.9920079920079921</v>
       </c>
       <c r="E102" t="n">
-        <v>0.002997002997002997</v>
+        <v>0.007992007992007992</v>
       </c>
       <c r="F102" t="n">
-        <v>33.8125</v>
+        <v>65.5</v>
       </c>
     </row>
     <row r="103">
@@ -2694,7 +2694,7 @@
         <v>0.00999000999000999</v>
       </c>
       <c r="F103" t="n">
-        <v>33.140625</v>
+        <v>64.6875</v>
       </c>
     </row>
     <row r="104">
@@ -2710,13 +2710,13 @@
         <v>25</v>
       </c>
       <c r="D104" t="n">
-        <v>0.991008991008991</v>
+        <v>0.98001998001998</v>
       </c>
       <c r="E104" t="n">
-        <v>0.008991008991008992</v>
+        <v>0.01998001998001998</v>
       </c>
       <c r="F104" t="n">
-        <v>33.359375</v>
+        <v>66.46875</v>
       </c>
     </row>
     <row r="105">
@@ -2732,13 +2732,13 @@
         <v>25</v>
       </c>
       <c r="D105" t="n">
-        <v>0.994005994005994</v>
+        <v>0.9790209790209791</v>
       </c>
       <c r="E105" t="n">
-        <v>0.005994005994005994</v>
+        <v>0.02097902097902098</v>
       </c>
       <c r="F105" t="n">
-        <v>33.90625</v>
+        <v>64.75</v>
       </c>
     </row>
     <row r="106">
@@ -2754,13 +2754,13 @@
         <v>25</v>
       </c>
       <c r="D106" t="n">
-        <v>0.987012987012987</v>
+        <v>0.986013986013986</v>
       </c>
       <c r="E106" t="n">
-        <v>0.01298701298701299</v>
+        <v>0.01398601398601399</v>
       </c>
       <c r="F106" t="n">
-        <v>32.921875</v>
+        <v>64.703125</v>
       </c>
     </row>
     <row r="107">
@@ -2776,13 +2776,13 @@
         <v>25</v>
       </c>
       <c r="D107" t="n">
-        <v>0.99000999000999</v>
+        <v>0.9920079920079921</v>
       </c>
       <c r="E107" t="n">
-        <v>0.00999000999000999</v>
+        <v>0.007992007992007992</v>
       </c>
       <c r="F107" t="n">
-        <v>33.875</v>
+        <v>67.09375</v>
       </c>
     </row>
     <row r="108">
@@ -2798,13 +2798,13 @@
         <v>25</v>
       </c>
       <c r="D108" t="n">
-        <v>0.9890109890109891</v>
+        <v>0.986013986013986</v>
       </c>
       <c r="E108" t="n">
-        <v>0.01098901098901099</v>
+        <v>0.01398601398601399</v>
       </c>
       <c r="F108" t="n">
-        <v>33.65625</v>
+        <v>70.515625</v>
       </c>
     </row>
     <row r="109">
@@ -2820,13 +2820,13 @@
         <v>25</v>
       </c>
       <c r="D109" t="n">
-        <v>0.998001998001998</v>
+        <v>0.978021978021978</v>
       </c>
       <c r="E109" t="n">
-        <v>0.001998001998001998</v>
+        <v>0.02197802197802198</v>
       </c>
       <c r="F109" t="n">
-        <v>33.4375</v>
+        <v>66.65625</v>
       </c>
     </row>
     <row r="110">
@@ -2848,7 +2848,7 @@
         <v>0.01398601398601399</v>
       </c>
       <c r="F110" t="n">
-        <v>33.953125</v>
+        <v>65.5</v>
       </c>
     </row>
     <row r="111">
@@ -2864,13 +2864,13 @@
         <v>25</v>
       </c>
       <c r="D111" t="n">
-        <v>0.996003996003996</v>
+        <v>0.983016983016983</v>
       </c>
       <c r="E111" t="n">
-        <v>0.003996003996003996</v>
+        <v>0.01698301698301698</v>
       </c>
       <c r="F111" t="n">
-        <v>33.515625</v>
+        <v>67.234375</v>
       </c>
     </row>
     <row r="112">
@@ -2886,13 +2886,13 @@
         <v>25</v>
       </c>
       <c r="D112" t="n">
-        <v>0.9920079920079921</v>
+        <v>0.9890109890109891</v>
       </c>
       <c r="E112" t="n">
-        <v>0.007992007992007992</v>
+        <v>0.01098901098901099</v>
       </c>
       <c r="F112" t="n">
-        <v>34.703125</v>
+        <v>67.109375</v>
       </c>
     </row>
     <row r="113">
@@ -2908,13 +2908,13 @@
         <v>25</v>
       </c>
       <c r="D113" t="n">
-        <v>0.993006993006993</v>
+        <v>0.9920079920079921</v>
       </c>
       <c r="E113" t="n">
-        <v>0.006993006993006993</v>
+        <v>0.007992007992007992</v>
       </c>
       <c r="F113" t="n">
-        <v>34.15625</v>
+        <v>66.359375</v>
       </c>
     </row>
     <row r="114">
@@ -2930,13 +2930,13 @@
         <v>25</v>
       </c>
       <c r="D114" t="n">
-        <v>0.994005994005994</v>
+        <v>0.9820179820179821</v>
       </c>
       <c r="E114" t="n">
-        <v>0.005994005994005994</v>
+        <v>0.01798201798201798</v>
       </c>
       <c r="F114" t="n">
-        <v>34.59375</v>
+        <v>68.140625</v>
       </c>
     </row>
     <row r="115">
@@ -2952,13 +2952,13 @@
         <v>25</v>
       </c>
       <c r="D115" t="n">
-        <v>0.99000999000999</v>
+        <v>0.987012987012987</v>
       </c>
       <c r="E115" t="n">
-        <v>0.00999000999000999</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="F115" t="n">
-        <v>35</v>
+        <v>68.046875</v>
       </c>
     </row>
     <row r="116">
@@ -2974,13 +2974,13 @@
         <v>25</v>
       </c>
       <c r="D116" t="n">
-        <v>0.9890109890109891</v>
+        <v>0.986013986013986</v>
       </c>
       <c r="E116" t="n">
-        <v>0.01098901098901099</v>
+        <v>0.01398601398601399</v>
       </c>
       <c r="F116" t="n">
-        <v>34.453125</v>
+        <v>66.75</v>
       </c>
     </row>
     <row r="117">
@@ -2996,13 +2996,13 @@
         <v>25</v>
       </c>
       <c r="D117" t="n">
-        <v>0.994005994005994</v>
+        <v>0.984015984015984</v>
       </c>
       <c r="E117" t="n">
-        <v>0.005994005994005994</v>
+        <v>0.01598401598401598</v>
       </c>
       <c r="F117" t="n">
-        <v>33.59375</v>
+        <v>64.984375</v>
       </c>
     </row>
     <row r="118">
@@ -3018,13 +3018,13 @@
         <v>25</v>
       </c>
       <c r="D118" t="n">
-        <v>0.984015984015984</v>
+        <v>0.986013986013986</v>
       </c>
       <c r="E118" t="n">
-        <v>0.01598401598401598</v>
+        <v>0.01398601398601399</v>
       </c>
       <c r="F118" t="n">
-        <v>34.8125</v>
+        <v>66.625</v>
       </c>
     </row>
     <row r="119">
@@ -3040,13 +3040,13 @@
         <v>25</v>
       </c>
       <c r="D119" t="n">
-        <v>0.9920079920079921</v>
+        <v>0.984015984015984</v>
       </c>
       <c r="E119" t="n">
-        <v>0.007992007992007992</v>
+        <v>0.01598401598401598</v>
       </c>
       <c r="F119" t="n">
-        <v>34.421875</v>
+        <v>69.203125</v>
       </c>
     </row>
     <row r="120">
@@ -3062,13 +3062,13 @@
         <v>25</v>
       </c>
       <c r="D120" t="n">
-        <v>0.993006993006993</v>
+        <v>0.9820179820179821</v>
       </c>
       <c r="E120" t="n">
-        <v>0.006993006993006993</v>
+        <v>0.01798201798201798</v>
       </c>
       <c r="F120" t="n">
-        <v>34.84375</v>
+        <v>66.625</v>
       </c>
     </row>
     <row r="121">
@@ -3084,13 +3084,13 @@
         <v>25</v>
       </c>
       <c r="D121" t="n">
-        <v>0.988011988011988</v>
+        <v>0.9890109890109891</v>
       </c>
       <c r="E121" t="n">
-        <v>0.01198801198801199</v>
+        <v>0.01098901098901099</v>
       </c>
       <c r="F121" t="n">
-        <v>34.796875</v>
+        <v>67.390625</v>
       </c>
     </row>
     <row r="122">
@@ -3112,7 +3112,7 @@
         <v>0.01398601398601399</v>
       </c>
       <c r="F122" t="n">
-        <v>35.0625</v>
+        <v>64.921875</v>
       </c>
     </row>
     <row r="123">
@@ -3128,13 +3128,13 @@
         <v>25</v>
       </c>
       <c r="D123" t="n">
-        <v>0.9820179820179821</v>
+        <v>0.985014985014985</v>
       </c>
       <c r="E123" t="n">
-        <v>0.01798201798201798</v>
+        <v>0.01498501498501499</v>
       </c>
       <c r="F123" t="n">
-        <v>34.0625</v>
+        <v>68.25</v>
       </c>
     </row>
     <row r="124">
@@ -3150,13 +3150,13 @@
         <v>25</v>
       </c>
       <c r="D124" t="n">
-        <v>0.991008991008991</v>
+        <v>0.988011988011988</v>
       </c>
       <c r="E124" t="n">
-        <v>0.008991008991008992</v>
+        <v>0.01198801198801199</v>
       </c>
       <c r="F124" t="n">
-        <v>35.6875</v>
+        <v>66.890625</v>
       </c>
     </row>
     <row r="125">
@@ -3172,13 +3172,13 @@
         <v>25</v>
       </c>
       <c r="D125" t="n">
-        <v>0.986013986013986</v>
+        <v>0.981018981018981</v>
       </c>
       <c r="E125" t="n">
-        <v>0.01398601398601399</v>
+        <v>0.01898101898101898</v>
       </c>
       <c r="F125" t="n">
-        <v>33.671875</v>
+        <v>66.640625</v>
       </c>
     </row>
     <row r="126">
@@ -3200,7 +3200,7 @@
         <v>0.01098901098901099</v>
       </c>
       <c r="F126" t="n">
-        <v>33.40625</v>
+        <v>68.859375</v>
       </c>
     </row>
     <row r="127">
@@ -3216,13 +3216,13 @@
         <v>25</v>
       </c>
       <c r="D127" t="n">
-        <v>0.986013986013986</v>
+        <v>0.981018981018981</v>
       </c>
       <c r="E127" t="n">
-        <v>0.01398601398601399</v>
+        <v>0.01898101898101898</v>
       </c>
       <c r="F127" t="n">
-        <v>34.8125</v>
+        <v>68.953125</v>
       </c>
     </row>
     <row r="128">
@@ -3238,13 +3238,13 @@
         <v>25</v>
       </c>
       <c r="D128" t="n">
-        <v>0.9890109890109891</v>
+        <v>0.974025974025974</v>
       </c>
       <c r="E128" t="n">
-        <v>0.01098901098901099</v>
+        <v>0.02597402597402598</v>
       </c>
       <c r="F128" t="n">
-        <v>35.578125</v>
+        <v>67.875</v>
       </c>
     </row>
     <row r="129">
@@ -3260,13 +3260,13 @@
         <v>25</v>
       </c>
       <c r="D129" t="n">
-        <v>0.9820179820179821</v>
+        <v>0.971028971028971</v>
       </c>
       <c r="E129" t="n">
-        <v>0.01798201798201798</v>
+        <v>0.02897102897102897</v>
       </c>
       <c r="F129" t="n">
-        <v>33.625</v>
+        <v>66.65625</v>
       </c>
     </row>
     <row r="130">
@@ -3282,13 +3282,13 @@
         <v>25</v>
       </c>
       <c r="D130" t="n">
-        <v>0.9820179820179821</v>
+        <v>0.977022977022977</v>
       </c>
       <c r="E130" t="n">
-        <v>0.01798201798201798</v>
+        <v>0.02297702297702298</v>
       </c>
       <c r="F130" t="n">
-        <v>34.4375</v>
+        <v>66.734375</v>
       </c>
     </row>
     <row r="131">
@@ -3304,13 +3304,13 @@
         <v>25</v>
       </c>
       <c r="D131" t="n">
-        <v>0.9920079920079921</v>
+        <v>0.986013986013986</v>
       </c>
       <c r="E131" t="n">
-        <v>0.007992007992007992</v>
+        <v>0.01398601398601399</v>
       </c>
       <c r="F131" t="n">
-        <v>36.453125</v>
+        <v>66.875</v>
       </c>
     </row>
     <row r="132">
@@ -3326,13 +3326,13 @@
         <v>25</v>
       </c>
       <c r="D132" t="n">
-        <v>0.987012987012987</v>
+        <v>0.9730269730269731</v>
       </c>
       <c r="E132" t="n">
-        <v>0.01298701298701299</v>
+        <v>0.02697302697302697</v>
       </c>
       <c r="F132" t="n">
-        <v>34.625</v>
+        <v>68.078125</v>
       </c>
     </row>
     <row r="133">
@@ -3348,13 +3348,13 @@
         <v>25</v>
       </c>
       <c r="D133" t="n">
-        <v>0.978021978021978</v>
+        <v>0.9820179820179821</v>
       </c>
       <c r="E133" t="n">
-        <v>0.02197802197802198</v>
+        <v>0.01798201798201798</v>
       </c>
       <c r="F133" t="n">
-        <v>36.0625</v>
+        <v>66.34375</v>
       </c>
     </row>
     <row r="134">
@@ -3370,13 +3370,13 @@
         <v>25</v>
       </c>
       <c r="D134" t="n">
-        <v>0.987012987012987</v>
+        <v>0.9820179820179821</v>
       </c>
       <c r="E134" t="n">
-        <v>0.01298701298701299</v>
+        <v>0.01798201798201798</v>
       </c>
       <c r="F134" t="n">
-        <v>34.8125</v>
+        <v>65.515625</v>
       </c>
     </row>
     <row r="135">
@@ -3392,13 +3392,13 @@
         <v>25</v>
       </c>
       <c r="D135" t="n">
-        <v>0.99000999000999</v>
+        <v>0.9790209790209791</v>
       </c>
       <c r="E135" t="n">
-        <v>0.00999000999000999</v>
+        <v>0.02097902097902098</v>
       </c>
       <c r="F135" t="n">
-        <v>35.21875</v>
+        <v>69.921875</v>
       </c>
     </row>
     <row r="136">
@@ -3414,13 +3414,13 @@
         <v>25</v>
       </c>
       <c r="D136" t="n">
-        <v>0.9890109890109891</v>
+        <v>0.977022977022977</v>
       </c>
       <c r="E136" t="n">
-        <v>0.01098901098901099</v>
+        <v>0.02297702297702298</v>
       </c>
       <c r="F136" t="n">
-        <v>34.703125</v>
+        <v>66.109375</v>
       </c>
     </row>
     <row r="137">
@@ -3436,13 +3436,13 @@
         <v>25</v>
       </c>
       <c r="D137" t="n">
-        <v>0.9790209790209791</v>
+        <v>0.978021978021978</v>
       </c>
       <c r="E137" t="n">
-        <v>0.02097902097902098</v>
+        <v>0.02197802197802198</v>
       </c>
       <c r="F137" t="n">
-        <v>35.078125</v>
+        <v>69.265625</v>
       </c>
     </row>
     <row r="138">
@@ -3458,13 +3458,13 @@
         <v>25</v>
       </c>
       <c r="D138" t="n">
-        <v>0.991008991008991</v>
+        <v>0.97002997002997</v>
       </c>
       <c r="E138" t="n">
-        <v>0.008991008991008992</v>
+        <v>0.02997002997002997</v>
       </c>
       <c r="F138" t="n">
-        <v>33.90625</v>
+        <v>67.609375</v>
       </c>
     </row>
     <row r="139">
@@ -3480,13 +3480,13 @@
         <v>25</v>
       </c>
       <c r="D139" t="n">
-        <v>0.993006993006993</v>
+        <v>0.974025974025974</v>
       </c>
       <c r="E139" t="n">
-        <v>0.006993006993006993</v>
+        <v>0.02597402597402598</v>
       </c>
       <c r="F139" t="n">
-        <v>34.890625</v>
+        <v>70.28125</v>
       </c>
     </row>
     <row r="140">
@@ -3502,13 +3502,13 @@
         <v>25</v>
       </c>
       <c r="D140" t="n">
-        <v>0.985014985014985</v>
+        <v>0.975024975024975</v>
       </c>
       <c r="E140" t="n">
-        <v>0.01498501498501499</v>
+        <v>0.02497502497502498</v>
       </c>
       <c r="F140" t="n">
-        <v>34.375</v>
+        <v>68.53125</v>
       </c>
     </row>
     <row r="141">
@@ -3524,13 +3524,13 @@
         <v>25</v>
       </c>
       <c r="D141" t="n">
-        <v>0.9890109890109891</v>
+        <v>0.974025974025974</v>
       </c>
       <c r="E141" t="n">
-        <v>0.01098901098901099</v>
+        <v>0.02597402597402598</v>
       </c>
       <c r="F141" t="n">
-        <v>34.921875</v>
+        <v>67.5625</v>
       </c>
     </row>
     <row r="142">
@@ -3546,13 +3546,13 @@
         <v>25</v>
       </c>
       <c r="D142" t="n">
-        <v>0.987012987012987</v>
+        <v>0.9730269730269731</v>
       </c>
       <c r="E142" t="n">
-        <v>0.01298701298701299</v>
+        <v>0.02697302697302697</v>
       </c>
       <c r="F142" t="n">
-        <v>34.765625</v>
+        <v>67.140625</v>
       </c>
     </row>
     <row r="143">
@@ -3568,13 +3568,13 @@
         <v>25</v>
       </c>
       <c r="D143" t="n">
-        <v>0.981018981018981</v>
+        <v>0.978021978021978</v>
       </c>
       <c r="E143" t="n">
-        <v>0.01898101898101898</v>
+        <v>0.02197802197802198</v>
       </c>
       <c r="F143" t="n">
-        <v>35.5</v>
+        <v>68.40625</v>
       </c>
     </row>
     <row r="144">
@@ -3590,13 +3590,13 @@
         <v>25</v>
       </c>
       <c r="D144" t="n">
-        <v>0.988011988011988</v>
+        <v>0.981018981018981</v>
       </c>
       <c r="E144" t="n">
-        <v>0.01198801198801199</v>
+        <v>0.01898101898101898</v>
       </c>
       <c r="F144" t="n">
-        <v>35.5</v>
+        <v>67.625</v>
       </c>
     </row>
     <row r="145">
@@ -3612,13 +3612,13 @@
         <v>25</v>
       </c>
       <c r="D145" t="n">
-        <v>0.983016983016983</v>
+        <v>0.985014985014985</v>
       </c>
       <c r="E145" t="n">
-        <v>0.01698301698301698</v>
+        <v>0.01498501498501499</v>
       </c>
       <c r="F145" t="n">
-        <v>35.234375</v>
+        <v>65.203125</v>
       </c>
     </row>
     <row r="146">
@@ -3634,13 +3634,13 @@
         <v>25</v>
       </c>
       <c r="D146" t="n">
-        <v>0.991008991008991</v>
+        <v>0.9730269730269731</v>
       </c>
       <c r="E146" t="n">
-        <v>0.008991008991008992</v>
+        <v>0.02697302697302697</v>
       </c>
       <c r="F146" t="n">
-        <v>35.046875</v>
+        <v>67.171875</v>
       </c>
     </row>
     <row r="147">
@@ -3656,13 +3656,13 @@
         <v>25</v>
       </c>
       <c r="D147" t="n">
-        <v>0.99000999000999</v>
+        <v>0.9820179820179821</v>
       </c>
       <c r="E147" t="n">
-        <v>0.00999000999000999</v>
+        <v>0.01798201798201798</v>
       </c>
       <c r="F147" t="n">
-        <v>34.140625</v>
+        <v>68.4375</v>
       </c>
     </row>
     <row r="148">
@@ -3678,13 +3678,13 @@
         <v>25</v>
       </c>
       <c r="D148" t="n">
-        <v>0.99000999000999</v>
+        <v>0.9730269730269731</v>
       </c>
       <c r="E148" t="n">
-        <v>0.00999000999000999</v>
+        <v>0.02697302697302697</v>
       </c>
       <c r="F148" t="n">
-        <v>34.96875</v>
+        <v>68.65625</v>
       </c>
     </row>
     <row r="149">
@@ -3700,13 +3700,13 @@
         <v>25</v>
       </c>
       <c r="D149" t="n">
-        <v>0.9920079920079921</v>
+        <v>0.965034965034965</v>
       </c>
       <c r="E149" t="n">
-        <v>0.007992007992007992</v>
+        <v>0.03496503496503497</v>
       </c>
       <c r="F149" t="n">
-        <v>34.8125</v>
+        <v>66.5625</v>
       </c>
     </row>
     <row r="150">
@@ -3722,13 +3722,13 @@
         <v>25</v>
       </c>
       <c r="D150" t="n">
-        <v>0.988011988011988</v>
+        <v>0.9820179820179821</v>
       </c>
       <c r="E150" t="n">
-        <v>0.01198801198801199</v>
+        <v>0.01798201798201798</v>
       </c>
       <c r="F150" t="n">
-        <v>33.921875</v>
+        <v>67.328125</v>
       </c>
     </row>
     <row r="151">
@@ -3744,13 +3744,13 @@
         <v>25</v>
       </c>
       <c r="D151" t="n">
-        <v>0.984015984015984</v>
+        <v>0.986013986013986</v>
       </c>
       <c r="E151" t="n">
-        <v>0.01598401598401598</v>
+        <v>0.01398601398601399</v>
       </c>
       <c r="F151" t="n">
-        <v>33.46875</v>
+        <v>66.375</v>
       </c>
     </row>
     <row r="152">
@@ -3766,13 +3766,13 @@
         <v>25</v>
       </c>
       <c r="D152" t="n">
-        <v>0.996003996003996</v>
+        <v>0.9920079920079921</v>
       </c>
       <c r="E152" t="n">
-        <v>0.003996003996003996</v>
+        <v>0.007992007992007992</v>
       </c>
       <c r="F152" t="n">
-        <v>39.8125</v>
+        <v>75.1875</v>
       </c>
     </row>
     <row r="153">
@@ -3788,13 +3788,13 @@
         <v>25</v>
       </c>
       <c r="D153" t="n">
-        <v>0.993006993006993</v>
+        <v>0.985014985014985</v>
       </c>
       <c r="E153" t="n">
-        <v>0.006993006993006993</v>
+        <v>0.01498501498501499</v>
       </c>
       <c r="F153" t="n">
-        <v>38.953125</v>
+        <v>76.3125</v>
       </c>
     </row>
     <row r="154">
@@ -3810,13 +3810,13 @@
         <v>25</v>
       </c>
       <c r="D154" t="n">
-        <v>0.988011988011988</v>
+        <v>0.975024975024975</v>
       </c>
       <c r="E154" t="n">
-        <v>0.01198801198801199</v>
+        <v>0.02497502497502498</v>
       </c>
       <c r="F154" t="n">
-        <v>38.953125</v>
+        <v>75.703125</v>
       </c>
     </row>
     <row r="155">
@@ -3832,13 +3832,13 @@
         <v>25</v>
       </c>
       <c r="D155" t="n">
-        <v>0.987012987012987</v>
+        <v>0.98001998001998</v>
       </c>
       <c r="E155" t="n">
-        <v>0.01298701298701299</v>
+        <v>0.01998001998001998</v>
       </c>
       <c r="F155" t="n">
-        <v>38.875</v>
+        <v>73.53125</v>
       </c>
     </row>
     <row r="156">
@@ -3854,13 +3854,13 @@
         <v>25</v>
       </c>
       <c r="D156" t="n">
-        <v>0.984015984015984</v>
+        <v>0.9820179820179821</v>
       </c>
       <c r="E156" t="n">
-        <v>0.01598401598401598</v>
+        <v>0.01798201798201798</v>
       </c>
       <c r="F156" t="n">
-        <v>39.546875</v>
+        <v>73.96875</v>
       </c>
     </row>
     <row r="157">
@@ -3876,13 +3876,13 @@
         <v>25</v>
       </c>
       <c r="D157" t="n">
-        <v>0.99000999000999</v>
+        <v>0.993006993006993</v>
       </c>
       <c r="E157" t="n">
-        <v>0.00999000999000999</v>
+        <v>0.006993006993006993</v>
       </c>
       <c r="F157" t="n">
-        <v>39.6875</v>
+        <v>75.953125</v>
       </c>
     </row>
     <row r="158">
@@ -3898,13 +3898,13 @@
         <v>25</v>
       </c>
       <c r="D158" t="n">
-        <v>0.993006993006993</v>
+        <v>0.996003996003996</v>
       </c>
       <c r="E158" t="n">
-        <v>0.006993006993006993</v>
+        <v>0.003996003996003996</v>
       </c>
       <c r="F158" t="n">
-        <v>38.96875</v>
+        <v>75.515625</v>
       </c>
     </row>
     <row r="159">
@@ -3920,13 +3920,13 @@
         <v>25</v>
       </c>
       <c r="D159" t="n">
-        <v>0.986013986013986</v>
+        <v>0.9920079920079921</v>
       </c>
       <c r="E159" t="n">
-        <v>0.01398601398601399</v>
+        <v>0.007992007992007992</v>
       </c>
       <c r="F159" t="n">
-        <v>38.453125</v>
+        <v>76.828125</v>
       </c>
     </row>
     <row r="160">
@@ -3942,13 +3942,13 @@
         <v>25</v>
       </c>
       <c r="D160" t="n">
-        <v>0.987012987012987</v>
+        <v>0.991008991008991</v>
       </c>
       <c r="E160" t="n">
-        <v>0.01298701298701299</v>
+        <v>0.008991008991008992</v>
       </c>
       <c r="F160" t="n">
-        <v>38.5625</v>
+        <v>74.75</v>
       </c>
     </row>
     <row r="161">
@@ -3964,13 +3964,13 @@
         <v>25</v>
       </c>
       <c r="D161" t="n">
-        <v>0.993006993006993</v>
+        <v>0.995004995004995</v>
       </c>
       <c r="E161" t="n">
-        <v>0.006993006993006993</v>
+        <v>0.004995004995004995</v>
       </c>
       <c r="F161" t="n">
-        <v>38.703125</v>
+        <v>74.828125</v>
       </c>
     </row>
     <row r="162">
@@ -3986,13 +3986,13 @@
         <v>25</v>
       </c>
       <c r="D162" t="n">
-        <v>0.991008991008991</v>
+        <v>0.987012987012987</v>
       </c>
       <c r="E162" t="n">
-        <v>0.008991008991008992</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="F162" t="n">
-        <v>39.53125</v>
+        <v>74.734375</v>
       </c>
     </row>
     <row r="163">
@@ -4014,7 +4014,7 @@
         <v>0.01498501498501499</v>
       </c>
       <c r="F163" t="n">
-        <v>39.140625</v>
+        <v>75.03125</v>
       </c>
     </row>
     <row r="164">
@@ -4030,13 +4030,13 @@
         <v>25</v>
       </c>
       <c r="D164" t="n">
-        <v>0.9920079920079921</v>
+        <v>0.9820179820179821</v>
       </c>
       <c r="E164" t="n">
-        <v>0.007992007992007992</v>
+        <v>0.01798201798201798</v>
       </c>
       <c r="F164" t="n">
-        <v>39.34375</v>
+        <v>76.078125</v>
       </c>
     </row>
     <row r="165">
@@ -4052,13 +4052,13 @@
         <v>25</v>
       </c>
       <c r="D165" t="n">
-        <v>0.993006993006993</v>
+        <v>0.988011988011988</v>
       </c>
       <c r="E165" t="n">
-        <v>0.006993006993006993</v>
+        <v>0.01198801198801199</v>
       </c>
       <c r="F165" t="n">
-        <v>40.40625</v>
+        <v>74.703125</v>
       </c>
     </row>
     <row r="166">
@@ -4080,7 +4080,7 @@
         <v>0.01198801198801199</v>
       </c>
       <c r="F166" t="n">
-        <v>39.0625</v>
+        <v>75.59375</v>
       </c>
     </row>
     <row r="167">
@@ -4096,13 +4096,13 @@
         <v>25</v>
       </c>
       <c r="D167" t="n">
-        <v>0.9920079920079921</v>
+        <v>0.977022977022977</v>
       </c>
       <c r="E167" t="n">
-        <v>0.007992007992007992</v>
+        <v>0.02297702297702298</v>
       </c>
       <c r="F167" t="n">
-        <v>38.78125</v>
+        <v>76.6875</v>
       </c>
     </row>
     <row r="168">
@@ -4118,13 +4118,13 @@
         <v>25</v>
       </c>
       <c r="D168" t="n">
-        <v>0.997002997002997</v>
+        <v>0.987012987012987</v>
       </c>
       <c r="E168" t="n">
-        <v>0.002997002997002997</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="F168" t="n">
-        <v>40.796875</v>
+        <v>77.296875</v>
       </c>
     </row>
     <row r="169">
@@ -4140,13 +4140,13 @@
         <v>25</v>
       </c>
       <c r="D169" t="n">
-        <v>0.991008991008991</v>
+        <v>0.9890109890109891</v>
       </c>
       <c r="E169" t="n">
-        <v>0.008991008991008992</v>
+        <v>0.01098901098901099</v>
       </c>
       <c r="F169" t="n">
-        <v>38.40625</v>
+        <v>77.140625</v>
       </c>
     </row>
     <row r="170">
@@ -4162,13 +4162,13 @@
         <v>25</v>
       </c>
       <c r="D170" t="n">
-        <v>0.994005994005994</v>
+        <v>0.988011988011988</v>
       </c>
       <c r="E170" t="n">
-        <v>0.005994005994005994</v>
+        <v>0.01198801198801199</v>
       </c>
       <c r="F170" t="n">
-        <v>39.578125</v>
+        <v>76.046875</v>
       </c>
     </row>
     <row r="171">
@@ -4184,13 +4184,13 @@
         <v>25</v>
       </c>
       <c r="D171" t="n">
-        <v>0.9920079920079921</v>
+        <v>0.981018981018981</v>
       </c>
       <c r="E171" t="n">
-        <v>0.007992007992007992</v>
+        <v>0.01898101898101898</v>
       </c>
       <c r="F171" t="n">
-        <v>38.5625</v>
+        <v>75.5625</v>
       </c>
     </row>
     <row r="172">
@@ -4206,13 +4206,13 @@
         <v>25</v>
       </c>
       <c r="D172" t="n">
-        <v>0.997002997002997</v>
+        <v>0.9820179820179821</v>
       </c>
       <c r="E172" t="n">
-        <v>0.002997002997002997</v>
+        <v>0.01798201798201798</v>
       </c>
       <c r="F172" t="n">
-        <v>39.609375</v>
+        <v>76.046875</v>
       </c>
     </row>
     <row r="173">
@@ -4228,13 +4228,13 @@
         <v>25</v>
       </c>
       <c r="D173" t="n">
-        <v>0.988011988011988</v>
+        <v>0.991008991008991</v>
       </c>
       <c r="E173" t="n">
-        <v>0.01198801198801199</v>
+        <v>0.008991008991008992</v>
       </c>
       <c r="F173" t="n">
-        <v>38.65625</v>
+        <v>74.8125</v>
       </c>
     </row>
     <row r="174">
@@ -4250,13 +4250,13 @@
         <v>25</v>
       </c>
       <c r="D174" t="n">
-        <v>0.988011988011988</v>
+        <v>0.9820179820179821</v>
       </c>
       <c r="E174" t="n">
-        <v>0.01198801198801199</v>
+        <v>0.01798201798201798</v>
       </c>
       <c r="F174" t="n">
-        <v>38.203125</v>
+        <v>73.609375</v>
       </c>
     </row>
     <row r="175">
@@ -4272,13 +4272,13 @@
         <v>25</v>
       </c>
       <c r="D175" t="n">
-        <v>0.9890109890109891</v>
+        <v>0.988011988011988</v>
       </c>
       <c r="E175" t="n">
-        <v>0.01098901098901099</v>
+        <v>0.01198801198801199</v>
       </c>
       <c r="F175" t="n">
-        <v>39.359375</v>
+        <v>73.859375</v>
       </c>
     </row>
     <row r="176">
@@ -4294,13 +4294,13 @@
         <v>25</v>
       </c>
       <c r="D176" t="n">
-        <v>0.991008991008991</v>
+        <v>0.981018981018981</v>
       </c>
       <c r="E176" t="n">
-        <v>0.008991008991008992</v>
+        <v>0.01898101898101898</v>
       </c>
       <c r="F176" t="n">
-        <v>37.296875</v>
+        <v>74</v>
       </c>
     </row>
     <row r="177">
@@ -4316,13 +4316,13 @@
         <v>25</v>
       </c>
       <c r="D177" t="n">
-        <v>0.984015984015984</v>
+        <v>0.9730269730269731</v>
       </c>
       <c r="E177" t="n">
-        <v>0.01598401598401598</v>
+        <v>0.02697302697302697</v>
       </c>
       <c r="F177" t="n">
-        <v>39.921875</v>
+        <v>75.796875</v>
       </c>
     </row>
     <row r="178">
@@ -4338,13 +4338,13 @@
         <v>25</v>
       </c>
       <c r="D178" t="n">
-        <v>0.985014985014985</v>
+        <v>0.981018981018981</v>
       </c>
       <c r="E178" t="n">
-        <v>0.01498501498501499</v>
+        <v>0.01898101898101898</v>
       </c>
       <c r="F178" t="n">
-        <v>38.84375</v>
+        <v>76.59375</v>
       </c>
     </row>
     <row r="179">
@@ -4360,13 +4360,13 @@
         <v>25</v>
       </c>
       <c r="D179" t="n">
-        <v>0.991008991008991</v>
+        <v>0.975024975024975</v>
       </c>
       <c r="E179" t="n">
-        <v>0.008991008991008992</v>
+        <v>0.02497502497502498</v>
       </c>
       <c r="F179" t="n">
-        <v>39.9375</v>
+        <v>74.5</v>
       </c>
     </row>
     <row r="180">
@@ -4382,13 +4382,13 @@
         <v>25</v>
       </c>
       <c r="D180" t="n">
-        <v>0.995004995004995</v>
+        <v>0.9790209790209791</v>
       </c>
       <c r="E180" t="n">
-        <v>0.004995004995004995</v>
+        <v>0.02097902097902098</v>
       </c>
       <c r="F180" t="n">
-        <v>39.84375</v>
+        <v>77.203125</v>
       </c>
     </row>
     <row r="181">
@@ -4404,13 +4404,13 @@
         <v>25</v>
       </c>
       <c r="D181" t="n">
-        <v>0.99000999000999</v>
+        <v>0.98001998001998</v>
       </c>
       <c r="E181" t="n">
-        <v>0.00999000999000999</v>
+        <v>0.01998001998001998</v>
       </c>
       <c r="F181" t="n">
-        <v>39.3125</v>
+        <v>76.8125</v>
       </c>
     </row>
     <row r="182">
@@ -4426,13 +4426,13 @@
         <v>25</v>
       </c>
       <c r="D182" t="n">
-        <v>0.9920079920079921</v>
+        <v>0.971028971028971</v>
       </c>
       <c r="E182" t="n">
-        <v>0.007992007992007992</v>
+        <v>0.02897102897102897</v>
       </c>
       <c r="F182" t="n">
-        <v>40.65625</v>
+        <v>76.4375</v>
       </c>
     </row>
     <row r="183">
@@ -4448,13 +4448,13 @@
         <v>25</v>
       </c>
       <c r="D183" t="n">
-        <v>0.986013986013986</v>
+        <v>0.9730269730269731</v>
       </c>
       <c r="E183" t="n">
-        <v>0.01398601398601399</v>
+        <v>0.02697302697302697</v>
       </c>
       <c r="F183" t="n">
-        <v>39.6875</v>
+        <v>75</v>
       </c>
     </row>
     <row r="184">
@@ -4470,13 +4470,13 @@
         <v>25</v>
       </c>
       <c r="D184" t="n">
-        <v>0.986013986013986</v>
+        <v>0.975024975024975</v>
       </c>
       <c r="E184" t="n">
-        <v>0.01398601398601399</v>
+        <v>0.02497502497502498</v>
       </c>
       <c r="F184" t="n">
-        <v>39.796875</v>
+        <v>76.59375</v>
       </c>
     </row>
     <row r="185">
@@ -4492,13 +4492,13 @@
         <v>25</v>
       </c>
       <c r="D185" t="n">
-        <v>0.986013986013986</v>
+        <v>0.972027972027972</v>
       </c>
       <c r="E185" t="n">
-        <v>0.01398601398601399</v>
+        <v>0.02797202797202797</v>
       </c>
       <c r="F185" t="n">
-        <v>40.046875</v>
+        <v>77.34375</v>
       </c>
     </row>
     <row r="186">
@@ -4514,13 +4514,13 @@
         <v>25</v>
       </c>
       <c r="D186" t="n">
-        <v>0.987012987012987</v>
+        <v>0.97002997002997</v>
       </c>
       <c r="E186" t="n">
-        <v>0.01298701298701299</v>
+        <v>0.02997002997002997</v>
       </c>
       <c r="F186" t="n">
-        <v>40.671875</v>
+        <v>76.53125</v>
       </c>
     </row>
     <row r="187">
@@ -4536,13 +4536,13 @@
         <v>25</v>
       </c>
       <c r="D187" t="n">
-        <v>0.9820179820179821</v>
+        <v>0.9790209790209791</v>
       </c>
       <c r="E187" t="n">
-        <v>0.01798201798201798</v>
+        <v>0.02097902097902098</v>
       </c>
       <c r="F187" t="n">
-        <v>39.84375</v>
+        <v>77.265625</v>
       </c>
     </row>
     <row r="188">
@@ -4558,13 +4558,13 @@
         <v>25</v>
       </c>
       <c r="D188" t="n">
-        <v>0.985014985014985</v>
+        <v>0.9790209790209791</v>
       </c>
       <c r="E188" t="n">
-        <v>0.01498501498501499</v>
+        <v>0.02097902097902098</v>
       </c>
       <c r="F188" t="n">
-        <v>40.203125</v>
+        <v>78.515625</v>
       </c>
     </row>
     <row r="189">
@@ -4580,13 +4580,13 @@
         <v>25</v>
       </c>
       <c r="D189" t="n">
-        <v>0.99000999000999</v>
+        <v>0.9820179820179821</v>
       </c>
       <c r="E189" t="n">
-        <v>0.00999000999000999</v>
+        <v>0.01798201798201798</v>
       </c>
       <c r="F189" t="n">
-        <v>39.625</v>
+        <v>76.546875</v>
       </c>
     </row>
     <row r="190">
@@ -4602,13 +4602,13 @@
         <v>25</v>
       </c>
       <c r="D190" t="n">
-        <v>0.988011988011988</v>
+        <v>0.9820179820179821</v>
       </c>
       <c r="E190" t="n">
-        <v>0.01198801198801199</v>
+        <v>0.01798201798201798</v>
       </c>
       <c r="F190" t="n">
-        <v>40.21875</v>
+        <v>78.296875</v>
       </c>
     </row>
     <row r="191">
@@ -4624,13 +4624,13 @@
         <v>25</v>
       </c>
       <c r="D191" t="n">
-        <v>0.9790209790209791</v>
+        <v>0.9760239760239761</v>
       </c>
       <c r="E191" t="n">
-        <v>0.02097902097902098</v>
+        <v>0.02397602397602398</v>
       </c>
       <c r="F191" t="n">
-        <v>39.1875</v>
+        <v>76.359375</v>
       </c>
     </row>
     <row r="192">
@@ -4646,13 +4646,13 @@
         <v>25</v>
       </c>
       <c r="D192" t="n">
-        <v>0.986013986013986</v>
+        <v>0.974025974025974</v>
       </c>
       <c r="E192" t="n">
-        <v>0.01398601398601399</v>
+        <v>0.02597402597402598</v>
       </c>
       <c r="F192" t="n">
-        <v>39.890625</v>
+        <v>76.453125</v>
       </c>
     </row>
     <row r="193">
@@ -4668,13 +4668,13 @@
         <v>25</v>
       </c>
       <c r="D193" t="n">
-        <v>0.984015984015984</v>
+        <v>0.97002997002997</v>
       </c>
       <c r="E193" t="n">
-        <v>0.01598401598401598</v>
+        <v>0.02997002997002997</v>
       </c>
       <c r="F193" t="n">
-        <v>40.5625</v>
+        <v>77.015625</v>
       </c>
     </row>
     <row r="194">
@@ -4690,13 +4690,13 @@
         <v>25</v>
       </c>
       <c r="D194" t="n">
-        <v>0.98001998001998</v>
+        <v>0.986013986013986</v>
       </c>
       <c r="E194" t="n">
-        <v>0.01998001998001998</v>
+        <v>0.01398601398601399</v>
       </c>
       <c r="F194" t="n">
-        <v>40.40625</v>
+        <v>76.484375</v>
       </c>
     </row>
     <row r="195">
@@ -4712,13 +4712,13 @@
         <v>25</v>
       </c>
       <c r="D195" t="n">
-        <v>0.987012987012987</v>
+        <v>0.975024975024975</v>
       </c>
       <c r="E195" t="n">
-        <v>0.01298701298701299</v>
+        <v>0.02497502497502498</v>
       </c>
       <c r="F195" t="n">
-        <v>41.21875</v>
+        <v>77.265625</v>
       </c>
     </row>
     <row r="196">
@@ -4734,13 +4734,13 @@
         <v>25</v>
       </c>
       <c r="D196" t="n">
-        <v>0.985014985014985</v>
+        <v>0.9690309690309691</v>
       </c>
       <c r="E196" t="n">
-        <v>0.01498501498501499</v>
+        <v>0.03096903096903097</v>
       </c>
       <c r="F196" t="n">
-        <v>40.515625</v>
+        <v>76.171875</v>
       </c>
     </row>
     <row r="197">
@@ -4756,13 +4756,13 @@
         <v>25</v>
       </c>
       <c r="D197" t="n">
-        <v>0.991008991008991</v>
+        <v>0.967032967032967</v>
       </c>
       <c r="E197" t="n">
-        <v>0.008991008991008992</v>
+        <v>0.03296703296703297</v>
       </c>
       <c r="F197" t="n">
-        <v>39.421875</v>
+        <v>74.8125</v>
       </c>
     </row>
     <row r="198">
@@ -4778,13 +4778,13 @@
         <v>25</v>
       </c>
       <c r="D198" t="n">
-        <v>0.987012987012987</v>
+        <v>0.985014985014985</v>
       </c>
       <c r="E198" t="n">
-        <v>0.01298701298701299</v>
+        <v>0.01498501498501499</v>
       </c>
       <c r="F198" t="n">
-        <v>40.1875</v>
+        <v>76.78125</v>
       </c>
     </row>
     <row r="199">
@@ -4800,13 +4800,13 @@
         <v>25</v>
       </c>
       <c r="D199" t="n">
-        <v>0.99000999000999</v>
+        <v>0.975024975024975</v>
       </c>
       <c r="E199" t="n">
-        <v>0.00999000999000999</v>
+        <v>0.02497502497502498</v>
       </c>
       <c r="F199" t="n">
-        <v>39.21875</v>
+        <v>74.5</v>
       </c>
     </row>
     <row r="200">
@@ -4822,13 +4822,13 @@
         <v>25</v>
       </c>
       <c r="D200" t="n">
-        <v>0.984015984015984</v>
+        <v>0.986013986013986</v>
       </c>
       <c r="E200" t="n">
-        <v>0.01598401598401598</v>
+        <v>0.01398601398601399</v>
       </c>
       <c r="F200" t="n">
-        <v>38.9375</v>
+        <v>73.625</v>
       </c>
     </row>
     <row r="201">
@@ -4844,13 +4844,13 @@
         <v>25</v>
       </c>
       <c r="D201" t="n">
-        <v>0.98001998001998</v>
+        <v>0.983016983016983</v>
       </c>
       <c r="E201" t="n">
-        <v>0.01998001998001998</v>
+        <v>0.01698301698301698</v>
       </c>
       <c r="F201" t="n">
-        <v>38.140625</v>
+        <v>75.53125</v>
       </c>
     </row>
     <row r="202">
@@ -4866,13 +4866,13 @@
         <v>25</v>
       </c>
       <c r="D202" t="n">
-        <v>0.995004995004995</v>
+        <v>0.9890109890109891</v>
       </c>
       <c r="E202" t="n">
-        <v>0.004995004995004995</v>
+        <v>0.01098901098901099</v>
       </c>
       <c r="F202" t="n">
-        <v>43.171875</v>
+        <v>85.671875</v>
       </c>
     </row>
     <row r="203">
@@ -4888,13 +4888,13 @@
         <v>25</v>
       </c>
       <c r="D203" t="n">
-        <v>0.9920079920079921</v>
+        <v>0.986013986013986</v>
       </c>
       <c r="E203" t="n">
-        <v>0.007992007992007992</v>
+        <v>0.01398601398601399</v>
       </c>
       <c r="F203" t="n">
-        <v>43.59375</v>
+        <v>86.609375</v>
       </c>
     </row>
     <row r="204">
@@ -4916,7 +4916,7 @@
         <v>0.01598401598401598</v>
       </c>
       <c r="F204" t="n">
-        <v>43.078125</v>
+        <v>84.203125</v>
       </c>
     </row>
     <row r="205">
@@ -4932,13 +4932,13 @@
         <v>25</v>
       </c>
       <c r="D205" t="n">
-        <v>0.9890109890109891</v>
+        <v>0.985014985014985</v>
       </c>
       <c r="E205" t="n">
-        <v>0.01098901098901099</v>
+        <v>0.01498501498501499</v>
       </c>
       <c r="F205" t="n">
-        <v>42.71875</v>
+        <v>86.4375</v>
       </c>
     </row>
     <row r="206">
@@ -4954,13 +4954,13 @@
         <v>25</v>
       </c>
       <c r="D206" t="n">
-        <v>0.984015984015984</v>
+        <v>0.985014985014985</v>
       </c>
       <c r="E206" t="n">
-        <v>0.01598401598401598</v>
+        <v>0.01498501498501499</v>
       </c>
       <c r="F206" t="n">
-        <v>43.9375</v>
+        <v>84.421875</v>
       </c>
     </row>
     <row r="207">
@@ -4976,13 +4976,13 @@
         <v>25</v>
       </c>
       <c r="D207" t="n">
-        <v>0.983016983016983</v>
+        <v>0.985014985014985</v>
       </c>
       <c r="E207" t="n">
-        <v>0.01698301698301698</v>
+        <v>0.01498501498501499</v>
       </c>
       <c r="F207" t="n">
-        <v>44.15625</v>
+        <v>85.6875</v>
       </c>
     </row>
     <row r="208">
@@ -4998,13 +4998,13 @@
         <v>25</v>
       </c>
       <c r="D208" t="n">
-        <v>0.991008991008991</v>
+        <v>0.984015984015984</v>
       </c>
       <c r="E208" t="n">
-        <v>0.008991008991008992</v>
+        <v>0.01598401598401598</v>
       </c>
       <c r="F208" t="n">
-        <v>43.78125</v>
+        <v>84.4375</v>
       </c>
     </row>
     <row r="209">
@@ -5020,13 +5020,13 @@
         <v>25</v>
       </c>
       <c r="D209" t="n">
-        <v>0.987012987012987</v>
+        <v>0.984015984015984</v>
       </c>
       <c r="E209" t="n">
-        <v>0.01298701298701299</v>
+        <v>0.01598401598401598</v>
       </c>
       <c r="F209" t="n">
-        <v>43.625</v>
+        <v>83.484375</v>
       </c>
     </row>
     <row r="210">
@@ -5042,13 +5042,13 @@
         <v>25</v>
       </c>
       <c r="D210" t="n">
-        <v>0.99000999000999</v>
+        <v>0.98001998001998</v>
       </c>
       <c r="E210" t="n">
-        <v>0.00999000999000999</v>
+        <v>0.01998001998001998</v>
       </c>
       <c r="F210" t="n">
-        <v>44.5625</v>
+        <v>85.765625</v>
       </c>
     </row>
     <row r="211">
@@ -5064,13 +5064,13 @@
         <v>25</v>
       </c>
       <c r="D211" t="n">
-        <v>0.9890109890109891</v>
+        <v>0.9820179820179821</v>
       </c>
       <c r="E211" t="n">
-        <v>0.01098901098901099</v>
+        <v>0.01798201798201798</v>
       </c>
       <c r="F211" t="n">
-        <v>43.890625</v>
+        <v>85.90625</v>
       </c>
     </row>
     <row r="212">
@@ -5086,13 +5086,13 @@
         <v>25</v>
       </c>
       <c r="D212" t="n">
-        <v>0.9920079920079921</v>
+        <v>0.986013986013986</v>
       </c>
       <c r="E212" t="n">
-        <v>0.007992007992007992</v>
+        <v>0.01398601398601399</v>
       </c>
       <c r="F212" t="n">
-        <v>43.21875</v>
+        <v>85.328125</v>
       </c>
     </row>
     <row r="213">
@@ -5108,13 +5108,13 @@
         <v>25</v>
       </c>
       <c r="D213" t="n">
-        <v>0.997002997002997</v>
+        <v>0.9890109890109891</v>
       </c>
       <c r="E213" t="n">
-        <v>0.002997002997002997</v>
+        <v>0.01098901098901099</v>
       </c>
       <c r="F213" t="n">
-        <v>43.03125</v>
+        <v>84.546875</v>
       </c>
     </row>
     <row r="214">
@@ -5130,13 +5130,13 @@
         <v>25</v>
       </c>
       <c r="D214" t="n">
-        <v>0.991008991008991</v>
+        <v>0.99000999000999</v>
       </c>
       <c r="E214" t="n">
-        <v>0.008991008991008992</v>
+        <v>0.00999000999000999</v>
       </c>
       <c r="F214" t="n">
-        <v>43.90625</v>
+        <v>85.46875</v>
       </c>
     </row>
     <row r="215">
@@ -5152,13 +5152,13 @@
         <v>25</v>
       </c>
       <c r="D215" t="n">
-        <v>0.9920079920079921</v>
+        <v>0.987012987012987</v>
       </c>
       <c r="E215" t="n">
-        <v>0.007992007992007992</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="F215" t="n">
-        <v>44.1875</v>
+        <v>85.15625</v>
       </c>
     </row>
     <row r="216">
@@ -5174,13 +5174,13 @@
         <v>25</v>
       </c>
       <c r="D216" t="n">
-        <v>0.99000999000999</v>
+        <v>0.986013986013986</v>
       </c>
       <c r="E216" t="n">
-        <v>0.00999000999000999</v>
+        <v>0.01398601398601399</v>
       </c>
       <c r="F216" t="n">
-        <v>43.84375</v>
+        <v>84.953125</v>
       </c>
     </row>
     <row r="217">
@@ -5196,13 +5196,13 @@
         <v>25</v>
       </c>
       <c r="D217" t="n">
-        <v>0.994005994005994</v>
+        <v>0.9890109890109891</v>
       </c>
       <c r="E217" t="n">
-        <v>0.005994005994005994</v>
+        <v>0.01098901098901099</v>
       </c>
       <c r="F217" t="n">
-        <v>43.375</v>
+        <v>86.28125</v>
       </c>
     </row>
     <row r="218">
@@ -5218,13 +5218,13 @@
         <v>25</v>
       </c>
       <c r="D218" t="n">
-        <v>0.991008991008991</v>
+        <v>0.985014985014985</v>
       </c>
       <c r="E218" t="n">
-        <v>0.008991008991008992</v>
+        <v>0.01498501498501499</v>
       </c>
       <c r="F218" t="n">
-        <v>43.609375</v>
+        <v>84</v>
       </c>
     </row>
     <row r="219">
@@ -5240,13 +5240,13 @@
         <v>25</v>
       </c>
       <c r="D219" t="n">
-        <v>0.991008991008991</v>
+        <v>0.986013986013986</v>
       </c>
       <c r="E219" t="n">
-        <v>0.008991008991008992</v>
+        <v>0.01398601398601399</v>
       </c>
       <c r="F219" t="n">
-        <v>43.515625</v>
+        <v>85.3125</v>
       </c>
     </row>
     <row r="220">
@@ -5262,13 +5262,13 @@
         <v>25</v>
       </c>
       <c r="D220" t="n">
-        <v>0.9890109890109891</v>
+        <v>0.987012987012987</v>
       </c>
       <c r="E220" t="n">
-        <v>0.01098901098901099</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="F220" t="n">
-        <v>43.828125</v>
+        <v>85.03125</v>
       </c>
     </row>
     <row r="221">
@@ -5284,13 +5284,13 @@
         <v>25</v>
       </c>
       <c r="D221" t="n">
-        <v>0.99000999000999</v>
+        <v>0.986013986013986</v>
       </c>
       <c r="E221" t="n">
-        <v>0.00999000999000999</v>
+        <v>0.01398601398601399</v>
       </c>
       <c r="F221" t="n">
-        <v>44.609375</v>
+        <v>85.765625</v>
       </c>
     </row>
     <row r="222">
@@ -5306,13 +5306,13 @@
         <v>25</v>
       </c>
       <c r="D222" t="n">
-        <v>0.993006993006993</v>
+        <v>0.99000999000999</v>
       </c>
       <c r="E222" t="n">
-        <v>0.006993006993006993</v>
+        <v>0.00999000999000999</v>
       </c>
       <c r="F222" t="n">
-        <v>43.84375</v>
+        <v>86.640625</v>
       </c>
     </row>
     <row r="223">
@@ -5328,13 +5328,13 @@
         <v>25</v>
       </c>
       <c r="D223" t="n">
-        <v>0.9890109890109891</v>
+        <v>0.99000999000999</v>
       </c>
       <c r="E223" t="n">
-        <v>0.01098901098901099</v>
+        <v>0.00999000999000999</v>
       </c>
       <c r="F223" t="n">
-        <v>43.203125</v>
+        <v>85.1875</v>
       </c>
     </row>
     <row r="224">
@@ -5350,13 +5350,13 @@
         <v>25</v>
       </c>
       <c r="D224" t="n">
-        <v>0.99000999000999</v>
+        <v>0.988011988011988</v>
       </c>
       <c r="E224" t="n">
-        <v>0.00999000999000999</v>
+        <v>0.01198801198801199</v>
       </c>
       <c r="F224" t="n">
-        <v>43</v>
+        <v>84.796875</v>
       </c>
     </row>
     <row r="225">
@@ -5372,13 +5372,13 @@
         <v>25</v>
       </c>
       <c r="D225" t="n">
-        <v>0.9920079920079921</v>
+        <v>0.985014985014985</v>
       </c>
       <c r="E225" t="n">
-        <v>0.007992007992007992</v>
+        <v>0.01498501498501499</v>
       </c>
       <c r="F225" t="n">
-        <v>42.40625</v>
+        <v>84.890625</v>
       </c>
     </row>
     <row r="226">
@@ -5394,13 +5394,13 @@
         <v>25</v>
       </c>
       <c r="D226" t="n">
-        <v>0.99000999000999</v>
+        <v>0.986013986013986</v>
       </c>
       <c r="E226" t="n">
-        <v>0.00999000999000999</v>
+        <v>0.01398601398601399</v>
       </c>
       <c r="F226" t="n">
-        <v>42.46875</v>
+        <v>81.59375</v>
       </c>
     </row>
     <row r="227">
@@ -5416,13 +5416,13 @@
         <v>25</v>
       </c>
       <c r="D227" t="n">
-        <v>0.9890109890109891</v>
+        <v>0.975024975024975</v>
       </c>
       <c r="E227" t="n">
-        <v>0.01098901098901099</v>
+        <v>0.02497502497502498</v>
       </c>
       <c r="F227" t="n">
-        <v>43.484375</v>
+        <v>86.265625</v>
       </c>
     </row>
     <row r="228">
@@ -5438,13 +5438,13 @@
         <v>25</v>
       </c>
       <c r="D228" t="n">
-        <v>0.988011988011988</v>
+        <v>0.987012987012987</v>
       </c>
       <c r="E228" t="n">
-        <v>0.01198801198801199</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="F228" t="n">
-        <v>43.65625</v>
+        <v>85.90625</v>
       </c>
     </row>
     <row r="229">
@@ -5460,13 +5460,13 @@
         <v>25</v>
       </c>
       <c r="D229" t="n">
-        <v>0.988011988011988</v>
+        <v>0.978021978021978</v>
       </c>
       <c r="E229" t="n">
-        <v>0.01198801198801199</v>
+        <v>0.02197802197802198</v>
       </c>
       <c r="F229" t="n">
-        <v>44.484375</v>
+        <v>84.65625</v>
       </c>
     </row>
     <row r="230">
@@ -5482,13 +5482,13 @@
         <v>25</v>
       </c>
       <c r="D230" t="n">
-        <v>0.9890109890109891</v>
+        <v>0.977022977022977</v>
       </c>
       <c r="E230" t="n">
-        <v>0.01098901098901099</v>
+        <v>0.02297702297702298</v>
       </c>
       <c r="F230" t="n">
-        <v>43.484375</v>
+        <v>85.203125</v>
       </c>
     </row>
     <row r="231">
@@ -5504,13 +5504,13 @@
         <v>25</v>
       </c>
       <c r="D231" t="n">
-        <v>0.983016983016983</v>
+        <v>0.98001998001998</v>
       </c>
       <c r="E231" t="n">
-        <v>0.01698301698301698</v>
+        <v>0.01998001998001998</v>
       </c>
       <c r="F231" t="n">
-        <v>43.921875</v>
+        <v>87.0625</v>
       </c>
     </row>
     <row r="232">
@@ -5526,13 +5526,13 @@
         <v>25</v>
       </c>
       <c r="D232" t="n">
-        <v>0.9820179820179821</v>
+        <v>0.968031968031968</v>
       </c>
       <c r="E232" t="n">
-        <v>0.01798201798201798</v>
+        <v>0.03196803196803197</v>
       </c>
       <c r="F232" t="n">
-        <v>44.46875</v>
+        <v>84.515625</v>
       </c>
     </row>
     <row r="233">
@@ -5548,13 +5548,13 @@
         <v>25</v>
       </c>
       <c r="D233" t="n">
-        <v>0.988011988011988</v>
+        <v>0.97002997002997</v>
       </c>
       <c r="E233" t="n">
-        <v>0.01198801198801199</v>
+        <v>0.02997002997002997</v>
       </c>
       <c r="F233" t="n">
-        <v>44.109375</v>
+        <v>85.71875</v>
       </c>
     </row>
     <row r="234">
@@ -5570,13 +5570,13 @@
         <v>25</v>
       </c>
       <c r="D234" t="n">
-        <v>0.98001998001998</v>
+        <v>0.965034965034965</v>
       </c>
       <c r="E234" t="n">
-        <v>0.01998001998001998</v>
+        <v>0.03496503496503497</v>
       </c>
       <c r="F234" t="n">
-        <v>44.453125</v>
+        <v>86.84375</v>
       </c>
     </row>
     <row r="235">
@@ -5592,13 +5592,13 @@
         <v>25</v>
       </c>
       <c r="D235" t="n">
-        <v>0.9820179820179821</v>
+        <v>0.968031968031968</v>
       </c>
       <c r="E235" t="n">
-        <v>0.01798201798201798</v>
+        <v>0.03196803196803197</v>
       </c>
       <c r="F235" t="n">
-        <v>43.96875</v>
+        <v>86.3125</v>
       </c>
     </row>
     <row r="236">
@@ -5614,13 +5614,13 @@
         <v>25</v>
       </c>
       <c r="D236" t="n">
-        <v>0.977022977022977</v>
+        <v>0.9730269730269731</v>
       </c>
       <c r="E236" t="n">
-        <v>0.02297702297702298</v>
+        <v>0.02697302697302697</v>
       </c>
       <c r="F236" t="n">
-        <v>43.875</v>
+        <v>87.640625</v>
       </c>
     </row>
     <row r="237">
@@ -5636,13 +5636,13 @@
         <v>25</v>
       </c>
       <c r="D237" t="n">
-        <v>0.987012987012987</v>
+        <v>0.97002997002997</v>
       </c>
       <c r="E237" t="n">
-        <v>0.01298701298701299</v>
+        <v>0.02997002997002997</v>
       </c>
       <c r="F237" t="n">
-        <v>43.859375</v>
+        <v>85.53125</v>
       </c>
     </row>
     <row r="238">
@@ -5658,13 +5658,13 @@
         <v>25</v>
       </c>
       <c r="D238" t="n">
-        <v>0.988011988011988</v>
+        <v>0.972027972027972</v>
       </c>
       <c r="E238" t="n">
-        <v>0.01198801198801199</v>
+        <v>0.02797202797202797</v>
       </c>
       <c r="F238" t="n">
-        <v>44.484375</v>
+        <v>85.34375</v>
       </c>
     </row>
     <row r="239">
@@ -5680,13 +5680,13 @@
         <v>25</v>
       </c>
       <c r="D239" t="n">
-        <v>0.991008991008991</v>
+        <v>0.967032967032967</v>
       </c>
       <c r="E239" t="n">
-        <v>0.008991008991008992</v>
+        <v>0.03296703296703297</v>
       </c>
       <c r="F239" t="n">
-        <v>43.96875</v>
+        <v>85.703125</v>
       </c>
     </row>
     <row r="240">
@@ -5702,13 +5702,13 @@
         <v>25</v>
       </c>
       <c r="D240" t="n">
-        <v>0.9820179820179821</v>
+        <v>0.9730269730269731</v>
       </c>
       <c r="E240" t="n">
-        <v>0.01798201798201798</v>
+        <v>0.02697302697302697</v>
       </c>
       <c r="F240" t="n">
-        <v>44.078125</v>
+        <v>85.171875</v>
       </c>
     </row>
     <row r="241">
@@ -5724,13 +5724,13 @@
         <v>25</v>
       </c>
       <c r="D241" t="n">
-        <v>0.9890109890109891</v>
+        <v>0.971028971028971</v>
       </c>
       <c r="E241" t="n">
-        <v>0.01098901098901099</v>
+        <v>0.02897102897102897</v>
       </c>
       <c r="F241" t="n">
-        <v>43.75</v>
+        <v>85.140625</v>
       </c>
     </row>
     <row r="242">
@@ -5746,13 +5746,13 @@
         <v>25</v>
       </c>
       <c r="D242" t="n">
-        <v>0.983016983016983</v>
+        <v>0.9690309690309691</v>
       </c>
       <c r="E242" t="n">
-        <v>0.01698301698301698</v>
+        <v>0.03096903096903097</v>
       </c>
       <c r="F242" t="n">
-        <v>43.515625</v>
+        <v>84.765625</v>
       </c>
     </row>
     <row r="243">
@@ -5768,13 +5768,13 @@
         <v>25</v>
       </c>
       <c r="D243" t="n">
-        <v>0.988011988011988</v>
+        <v>0.974025974025974</v>
       </c>
       <c r="E243" t="n">
-        <v>0.01198801198801199</v>
+        <v>0.02597402597402598</v>
       </c>
       <c r="F243" t="n">
-        <v>43.53125</v>
+        <v>85.140625</v>
       </c>
     </row>
     <row r="244">
@@ -5790,13 +5790,13 @@
         <v>25</v>
       </c>
       <c r="D244" t="n">
-        <v>0.985014985014985</v>
+        <v>0.975024975024975</v>
       </c>
       <c r="E244" t="n">
-        <v>0.01498501498501499</v>
+        <v>0.02497502497502498</v>
       </c>
       <c r="F244" t="n">
-        <v>43.84375</v>
+        <v>86.125</v>
       </c>
     </row>
     <row r="245">
@@ -5812,13 +5812,13 @@
         <v>25</v>
       </c>
       <c r="D245" t="n">
-        <v>0.987012987012987</v>
+        <v>0.97002997002997</v>
       </c>
       <c r="E245" t="n">
-        <v>0.01298701298701299</v>
+        <v>0.02997002997002997</v>
       </c>
       <c r="F245" t="n">
-        <v>43.515625</v>
+        <v>84.546875</v>
       </c>
     </row>
     <row r="246">
@@ -5834,13 +5834,13 @@
         <v>25</v>
       </c>
       <c r="D246" t="n">
-        <v>0.991008991008991</v>
+        <v>0.971028971028971</v>
       </c>
       <c r="E246" t="n">
-        <v>0.008991008991008992</v>
+        <v>0.02897102897102897</v>
       </c>
       <c r="F246" t="n">
-        <v>44.203125</v>
+        <v>85.296875</v>
       </c>
     </row>
     <row r="247">
@@ -5856,13 +5856,13 @@
         <v>25</v>
       </c>
       <c r="D247" t="n">
-        <v>0.987012987012987</v>
+        <v>0.981018981018981</v>
       </c>
       <c r="E247" t="n">
-        <v>0.01298701298701299</v>
+        <v>0.01898101898101898</v>
       </c>
       <c r="F247" t="n">
-        <v>43.96875</v>
+        <v>85.90625</v>
       </c>
     </row>
     <row r="248">
@@ -5878,13 +5878,13 @@
         <v>25</v>
       </c>
       <c r="D248" t="n">
-        <v>0.985014985014985</v>
+        <v>0.978021978021978</v>
       </c>
       <c r="E248" t="n">
-        <v>0.01498501498501499</v>
+        <v>0.02197802197802198</v>
       </c>
       <c r="F248" t="n">
-        <v>42.9375</v>
+        <v>84.109375</v>
       </c>
     </row>
     <row r="249">
@@ -5900,13 +5900,13 @@
         <v>25</v>
       </c>
       <c r="D249" t="n">
-        <v>0.988011988011988</v>
+        <v>0.9790209790209791</v>
       </c>
       <c r="E249" t="n">
-        <v>0.01198801198801199</v>
+        <v>0.02097902097902098</v>
       </c>
       <c r="F249" t="n">
-        <v>43.640625</v>
+        <v>83.25</v>
       </c>
     </row>
     <row r="250">
@@ -5922,13 +5922,13 @@
         <v>25</v>
       </c>
       <c r="D250" t="n">
-        <v>0.988011988011988</v>
+        <v>0.977022977022977</v>
       </c>
       <c r="E250" t="n">
-        <v>0.01198801198801199</v>
+        <v>0.02297702297702298</v>
       </c>
       <c r="F250" t="n">
-        <v>43.71875</v>
+        <v>83.640625</v>
       </c>
     </row>
     <row r="251">
@@ -5944,13 +5944,13 @@
         <v>25</v>
       </c>
       <c r="D251" t="n">
-        <v>0.987012987012987</v>
+        <v>0.965034965034965</v>
       </c>
       <c r="E251" t="n">
-        <v>0.01298701298701299</v>
+        <v>0.03496503496503497</v>
       </c>
       <c r="F251" t="n">
-        <v>42.765625</v>
+        <v>83.265625</v>
       </c>
     </row>
   </sheetData>
